--- a/Plancheck/check_protocol/hyperarc.xlsx
+++ b/Plancheck/check_protocol/hyperarc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General data" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="164">
   <si>
     <t>Name_of check_protocol</t>
   </si>
@@ -2328,7 +2328,7 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -2810,8 +2810,8 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2867,9 +2867,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
